--- a/RAW_DATA/exp06/VALUE221102EXP06.xlsx
+++ b/RAW_DATA/exp06/VALUE221102EXP06.xlsx
@@ -5,18 +5,18 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kimth\Desktop\OpticsPractice-value\RAW_DATA\exp06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01KTH\Desktop\OpticsPractice-value\RAW_DATA\exp06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F9EA19F-BF43-4283-A656-91A247A8AD73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BC5705-F2B8-4437-B7BE-9CEA661807AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3396" windowWidth="17280" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="2010" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="EXP0601" sheetId="1" r:id="rId1"/>
+    <sheet name="EXP0602-1" sheetId="2" r:id="rId2"/>
+    <sheet name="EXP0602-2" sheetId="3" r:id="rId3"/>
+    <sheet name="EXP0603" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -453,13 +453,13 @@
       <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.25" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="6.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +470,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -481,7 +481,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -492,7 +492,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20</v>
       </c>
@@ -503,7 +503,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
@@ -514,7 +514,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40</v>
       </c>
@@ -525,7 +525,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -536,7 +536,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60</v>
       </c>
@@ -547,7 +547,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>70</v>
       </c>
@@ -558,7 +558,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>80</v>
       </c>
@@ -569,7 +569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>90</v>
       </c>
@@ -580,7 +580,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100</v>
       </c>
@@ -591,7 +591,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>110</v>
       </c>
@@ -602,7 +602,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>120</v>
       </c>
@@ -613,7 +613,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>130</v>
       </c>
@@ -624,7 +624,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>140</v>
       </c>
@@ -635,7 +635,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>150</v>
       </c>
@@ -646,7 +646,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>160</v>
       </c>
@@ -657,7 +657,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>170</v>
       </c>
@@ -668,7 +668,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>180</v>
       </c>
@@ -679,7 +679,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -695,19 +695,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FE683243-5AA0-437E-9A65-B15213DD3C79}">
   <dimension ref="A1:E21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.69921875" customWidth="1"/>
-    <col min="3" max="3" width="7.296875" customWidth="1"/>
-    <col min="4" max="5" width="7.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.75" customWidth="1"/>
+    <col min="3" max="3" width="7.25" customWidth="1"/>
+    <col min="4" max="5" width="7.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -724,7 +724,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -741,7 +741,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -758,7 +758,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20</v>
       </c>
@@ -775,7 +775,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
@@ -792,7 +792,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40</v>
       </c>
@@ -809,7 +809,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -826,7 +826,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60</v>
       </c>
@@ -843,7 +843,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>70</v>
       </c>
@@ -860,7 +860,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>80</v>
       </c>
@@ -877,7 +877,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>90</v>
       </c>
@@ -894,7 +894,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100</v>
       </c>
@@ -911,7 +911,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>110</v>
       </c>
@@ -928,7 +928,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>120</v>
       </c>
@@ -945,7 +945,7 @@
         <v>651</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>130</v>
       </c>
@@ -962,7 +962,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>140</v>
       </c>
@@ -979,7 +979,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>150</v>
       </c>
@@ -996,7 +996,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>160</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>170</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>180</v>
       </c>
@@ -1047,7 +1047,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1062,18 +1062,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA234C39-6372-4E65-BCD0-8EB5B5FA6661}">
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="14.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="9" width="7.19921875" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="8.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="9" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="8.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>8</v>
       </c>
@@ -1108,7 +1108,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>603</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>20</v>
       </c>
@@ -1213,7 +1213,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>30</v>
       </c>
@@ -1248,7 +1248,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>40</v>
       </c>
@@ -1283,7 +1283,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>50</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>60</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>70</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>80</v>
       </c>
@@ -1423,7 +1423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>90</v>
       </c>
@@ -1458,7 +1458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>100</v>
       </c>
@@ -1493,7 +1493,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>110</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>120</v>
       </c>
@@ -1563,7 +1563,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>130</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>140</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>150</v>
       </c>
@@ -1668,7 +1668,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>160</v>
       </c>
@@ -1703,7 +1703,7 @@
         <v>606</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>170</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>705</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>180</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1792,12 +1792,12 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="3" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10</v>
       </c>
@@ -1819,7 +1819,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>20</v>
       </c>
@@ -1830,7 +1830,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>30</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>40</v>
       </c>
@@ -1852,7 +1852,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>50</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>51</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>52</v>
       </c>
@@ -1885,7 +1885,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>53</v>
       </c>
@@ -1896,7 +1896,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>54</v>
       </c>
@@ -1907,7 +1907,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>55</v>
       </c>
@@ -1918,7 +1918,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>56</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>57</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>20</v>
       </c>

--- a/RAW_DATA/exp06/VALUE221102EXP06.xlsx
+++ b/RAW_DATA/exp06/VALUE221102EXP06.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\01KTH\Desktop\OpticsPractice-value\RAW_DATA\exp06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="U:\$$PKNU$$\2학년 2학기\0.디스플레이광학실습\OpticsPractice-value\RAW_DATA\exp06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6BC5705-F2B8-4437-B7BE-9CEA661807AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41201848-A7ED-48CC-A4DA-5C5C45E26607}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3795" yWindow="2010" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1063,7 +1063,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1300,7 +1300,7 @@
         <v>73</v>
       </c>
       <c r="F7">
-        <v>15</v>
+        <v>115</v>
       </c>
       <c r="G7">
         <v>120</v>
